--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gokarnabhandari/Documents/Revature Training/Assignments/Project 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5C5D4B-4F20-9E48-84B2-4D2170CC887D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB308843-0371-8D44-970C-4368BBC5F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{F782749A-F44B-4770-ADC0-B107849E38C9}"/>
+    <workbookView xWindow="33600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{F782749A-F44B-4770-ADC0-B107849E38C9}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="242">
   <si>
     <t>ID</t>
   </si>
@@ -632,6 +632,15 @@
     </r>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Easy to associate code to acceptance criteria</t>
+  </si>
+  <si>
+    <t>Easy to associate code to acceptance criteria, but will involve writing out more code than the short option</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -641,6 +650,184 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the user provides one or more invalid credentials</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should get a browser alert saying a credential is invalid</t>
+    </r>
+  </si>
+  <si>
+    <t>Requires a bit more work to associate acceptance criteria to code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should get access to the Planetarium Homepage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides password </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&lt;password&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should get a browser alert saying </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&lt;alert&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the user should stay on the login page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is not logged in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>When</t>
     </r>
     <r>
@@ -651,6 +838,417 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> the user tries to directly access the home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should be denied access</t>
+    </r>
+  </si>
+  <si>
+    <t>Invalid password alert</t>
+  </si>
+  <si>
+    <t>IP7</t>
+  </si>
+  <si>
+    <t>VU1</t>
+  </si>
+  <si>
+    <t>IP6</t>
+  </si>
+  <si>
+    <t>IP5</t>
+  </si>
+  <si>
+    <t>IP4</t>
+  </si>
+  <si>
+    <t>IP3</t>
+  </si>
+  <si>
+    <t>IP2</t>
+  </si>
+  <si>
+    <t>IP1</t>
+  </si>
+  <si>
+    <t>Invalid username alert</t>
+  </si>
+  <si>
+    <t>VP1</t>
+  </si>
+  <si>
+    <t>IU5</t>
+  </si>
+  <si>
+    <t>IU4</t>
+  </si>
+  <si>
+    <t>IU3</t>
+  </si>
+  <si>
+    <t>IU2</t>
+  </si>
+  <si>
+    <t>IU1</t>
+  </si>
+  <si>
+    <t>Account create successfully alert</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Decision Table</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>can not access home page directly</t>
+  </si>
+  <si>
+    <t>logged out</t>
+  </si>
+  <si>
+    <t>BATMAN1</t>
+  </si>
+  <si>
+    <t>can access home page directly</t>
+  </si>
+  <si>
+    <t>logged in</t>
+  </si>
+  <si>
+    <t>batman1</t>
+  </si>
+  <si>
+    <t>expected result</t>
+  </si>
+  <si>
+    <t>user state</t>
+  </si>
+  <si>
+    <t>UR5, UR6</t>
+  </si>
+  <si>
+    <t>A1fredIsTheBestButlerToExist!!</t>
+  </si>
+  <si>
+    <t>Invalid Credentials alert</t>
+  </si>
+  <si>
+    <t>3atman</t>
+  </si>
+  <si>
+    <t>AlfredIsTheBestButlerToExist111</t>
+  </si>
+  <si>
+    <t>b0Ts</t>
+  </si>
+  <si>
+    <t>login success</t>
+  </si>
+  <si>
+    <t>requirement broken</t>
+  </si>
+  <si>
+    <t>invalid password</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>joker!!!!!!?)</t>
+  </si>
+  <si>
+    <t>2face</t>
+  </si>
+  <si>
+    <t>wonder_woman_for_the_DC_theming</t>
+  </si>
+  <si>
+    <t>Bane</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>invalid username</t>
+  </si>
+  <si>
+    <t>Negative Test Data</t>
+  </si>
+  <si>
+    <t>Iamthenight1939</t>
+  </si>
+  <si>
+    <t>Krypton-was_2000</t>
+  </si>
+  <si>
+    <t>valid password</t>
+  </si>
+  <si>
+    <t>Super_man-2001</t>
+  </si>
+  <si>
+    <t>valid username</t>
+  </si>
+  <si>
+    <t>Positive Test Data</t>
+  </si>
+  <si>
+    <t>Planet Data already present for the user</t>
+  </si>
+  <si>
+    <t>Planet Name</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>Moon Data already present for the user</t>
+  </si>
+  <si>
+    <t>Moon Name</t>
+  </si>
+  <si>
+    <t>Owner Planet</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Positive Planet Test Data</t>
+  </si>
+  <si>
+    <t>X3r_df -45</t>
+  </si>
+  <si>
+    <t>Positive Moon Test Data</t>
+  </si>
+  <si>
+    <t>VM1</t>
+  </si>
+  <si>
+    <t>Y3r_df -45</t>
+  </si>
+  <si>
+    <t>Negative Planet Test Data</t>
+  </si>
+  <si>
+    <t>Valid Image format</t>
+  </si>
+  <si>
+    <t>VIF1</t>
+  </si>
+  <si>
+    <t>VIF2</t>
+  </si>
+  <si>
+    <t>VIF3</t>
+  </si>
+  <si>
+    <t>.jpeg</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>Valid Planet Name</t>
+  </si>
+  <si>
+    <t>Valid Moon name</t>
+  </si>
+  <si>
+    <t>Valid Parent Planet</t>
+  </si>
+  <si>
+    <t>VPP1</t>
+  </si>
+  <si>
+    <t>invalid Planet Name</t>
+  </si>
+  <si>
+    <t>andigkfsau_-123dadjing infkihek</t>
+  </si>
+  <si>
+    <t>hellu?</t>
+  </si>
+  <si>
+    <t>valid file format if present</t>
+  </si>
+  <si>
+    <t>.gif</t>
+  </si>
+  <si>
+    <t>IIF1</t>
+  </si>
+  <si>
+    <t>IM1</t>
+  </si>
+  <si>
+    <t>IM2</t>
+  </si>
+  <si>
+    <t>IM3</t>
+  </si>
+  <si>
+    <t>Planet Data owned by other users</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>PR4, PR3</t>
+  </si>
+  <si>
+    <t>Negative Moon Test Data</t>
+  </si>
+  <si>
+    <t>IM4</t>
+  </si>
+  <si>
+    <t>Mr3</t>
+  </si>
+  <si>
+    <t>invalid Parent Planet</t>
+  </si>
+  <si>
+    <t>invalid Moon Name</t>
+  </si>
+  <si>
+    <t>IPP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planet Name </t>
+  </si>
+  <si>
+    <t>Image File Format</t>
+  </si>
+  <si>
+    <t>Decision Table for Planet</t>
+  </si>
+  <si>
+    <t>Invalid Planet Name Alert</t>
+  </si>
+  <si>
+    <t>Parent Planet Name</t>
+  </si>
+  <si>
+    <t>Planet Created Sucessfully</t>
+  </si>
+  <si>
+    <t>Moon Created Sucessfully</t>
+  </si>
+  <si>
+    <t>Invalid Image Format Alert</t>
+  </si>
+  <si>
+    <t>Moon Data  owned by other users</t>
+  </si>
+  <si>
+    <t>Decision Table for Moon</t>
+  </si>
+  <si>
+    <t>Sucessfully Deleted</t>
+  </si>
+  <si>
+    <t>Invalid Image format</t>
+  </si>
+  <si>
+    <t>Invalid Image File Format Alert</t>
+  </si>
+  <si>
+    <t>Invalid Moon Name Alert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should get a browser alert saying </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Account created successfully"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> the user provides username </t>
     </r>
     <r>
@@ -662,28 +1260,199 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"&lt;username input&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Easy to associate code to acceptance criteria</t>
-  </si>
-  <si>
-    <t>Easy to associate code to acceptance criteria, but will involve writing out more code than the short option</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>"&lt;username&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Given </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the user is not logged in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is not logged in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user submits the login credentials</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> the user provides username </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&lt;username&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the user submits the login credentials</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Given </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the user is in the home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should see their planets and moons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planet is selected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When </t>
     </r>
     <r>
@@ -691,22 +1460,413 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the user provides planet name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&lt;planet name&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the user provides planet image</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&lt;file path&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Submits the planet name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the table refreshes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the new planet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&lt;planet name&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is on the table</t>
+    </r>
+  </si>
+  <si>
+    <t>Invalid Planet Id Alert</t>
+  </si>
+  <si>
+    <t>Invalid Parent Id Alert</t>
+  </si>
+  <si>
+    <t>When I came back here I realized that I did have situation with other users and their planets and moon present but for some reason I took it out of the test. To implement this we need a step where the step creates a new user and creates a new planet and a moon. I will mention this in Acceptance Criteria too.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>the user provides one or more invalid credentials</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">  new user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Super_man-2002"</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> is created with planets </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Jupiter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and moon </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Titan"</t>
+    </r>
+  </si>
+  <si>
+    <t>Make sure it's the account is logged out</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And Moon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is selected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides moon name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&lt;moon name&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the user provides moon image</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&lt;file path&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Submits the moon name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the new moon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&lt;moon name&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is on the table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moon is selected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Then</t>
     </r>
     <r>
@@ -714,25 +1874,72 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should get a browser alert saying</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&lt;alert&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clicks on Delete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> the user should get a browser alert saying a credential is invalid</t>
-    </r>
-  </si>
-  <si>
-    <t>Requires a bit more work to associate acceptance criteria to code</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given</t>
+      <t xml:space="preserve"> no moon with owner </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;planet Id&gt;</t>
     </r>
     <r>
       <rPr>
@@ -742,7 +1949,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> the user is on the login page</t>
+      <t xml:space="preserve"> is present in the table</t>
     </r>
   </si>
   <si>
@@ -764,7 +1971,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> the user provides an existing username</t>
+      <t xml:space="preserve"> the user provides  name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"&lt;planet name&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the delete inputbox</t>
     </r>
   </si>
   <si>
@@ -783,22 +2010,100 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the moon </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&lt;moon name&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is off the table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the planet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&lt;planet name&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is off the table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>the user provides password associated with the username</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
+      <t xml:space="preserve"> the user provides  name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"&lt;moon name&gt;" </t>
     </r>
     <r>
       <rPr>
@@ -808,61 +2113,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>the user clicks Login</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user should get access to the Planetarium Homepage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides username </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;username input&gt;"</t>
+      <t>in the delete inputbox</t>
     </r>
   </si>
   <si>
@@ -881,1618 +2132,36 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides password </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;password&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user clicks Login</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user should get a browser alert saying </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;alert&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the user should stay on the login page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user logs in</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they should see their planets and moons</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user is not logged in</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user tries to directly access the home page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user should be denied access</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Given </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the user is logged in</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the user is in Home page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides valid planet name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Clicks on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Create Planet"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the table refreshes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the new planet is on the table</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user is logged in</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user is in Home page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the users provides JPEG or PNG file</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Clicks on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Create Planet"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">And </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the new planet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;planet name input&gt;"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is on the table</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides planet name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;planet name input&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the users provides </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;file format&gt;"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> file</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the user should get a browser alert saying </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;alert&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the table refreshes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides moon name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;moon name input&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the users provides planet ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;planet ID input&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user owns planet with planet ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;planet  ID input&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the new moon </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;moon name input&gt;"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is on the table as a moon of planet with id </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;planet ID input&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides moonname</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "&lt;moon name input&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user owns the planet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Clicks on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Delete Planet"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the planet is deleted </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all it's moon is deleted</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the table refreshes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the planet is off the table</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the moons of the planet is off the table</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides valid moon name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user owns the planet that owns the moon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Clicks on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Delete Moon"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the moon is deleted </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the moon  off the table</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;planet name&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user gets the alert saying </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Invalid planet  name"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user provides </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;moon name&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user gets the alert saying </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Invalid moon  name"</t>
-    </r>
-  </si>
-  <si>
-    <t>Invalid password alert</t>
-  </si>
-  <si>
-    <t>IP7</t>
-  </si>
-  <si>
-    <t>VU1</t>
-  </si>
-  <si>
-    <t>IP6</t>
-  </si>
-  <si>
-    <t>IP5</t>
-  </si>
-  <si>
-    <t>IP4</t>
-  </si>
-  <si>
-    <t>IP3</t>
-  </si>
-  <si>
-    <t>IP2</t>
-  </si>
-  <si>
-    <t>IP1</t>
-  </si>
-  <si>
-    <t>Invalid username alert</t>
-  </si>
-  <si>
-    <t>VP1</t>
-  </si>
-  <si>
-    <t>IU5</t>
-  </si>
-  <si>
-    <t>IU4</t>
-  </si>
-  <si>
-    <t>IU3</t>
-  </si>
-  <si>
-    <t>IU2</t>
-  </si>
-  <si>
-    <t>IU1</t>
-  </si>
-  <si>
-    <t>Account create successfully alert</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Decision Table</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
-    <t>can not access home page directly</t>
-  </si>
-  <si>
-    <t>logged out</t>
-  </si>
-  <si>
-    <t>BATMAN1</t>
-  </si>
-  <si>
-    <t>can access home page directly</t>
-  </si>
-  <si>
-    <t>logged in</t>
-  </si>
-  <si>
-    <t>batman1</t>
-  </si>
-  <si>
-    <t>expected result</t>
-  </si>
-  <si>
-    <t>user state</t>
-  </si>
-  <si>
-    <t>UR5, UR6</t>
-  </si>
-  <si>
-    <t>A1fredIsTheBestButlerToExist!!</t>
-  </si>
-  <si>
-    <t>Invalid Credentials alert</t>
-  </si>
-  <si>
-    <t>3atman</t>
-  </si>
-  <si>
-    <t>AlfredIsTheBestButlerToExist111</t>
-  </si>
-  <si>
-    <t>b0Ts</t>
-  </si>
-  <si>
-    <t>login success</t>
-  </si>
-  <si>
-    <t>requirement broken</t>
-  </si>
-  <si>
-    <t>invalid password</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>joker!!!!!!?)</t>
-  </si>
-  <si>
-    <t>2face</t>
-  </si>
-  <si>
-    <t>wonder_woman_for_the_DC_theming</t>
-  </si>
-  <si>
-    <t>Bane</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>invalid username</t>
-  </si>
-  <si>
-    <t>Negative Test Data</t>
-  </si>
-  <si>
-    <t>Iamthenight1939</t>
-  </si>
-  <si>
-    <t>Krypton-was_2000</t>
-  </si>
-  <si>
-    <t>valid password</t>
-  </si>
-  <si>
-    <t>Super_man-2001</t>
-  </si>
-  <si>
-    <t>valid username</t>
-  </si>
-  <si>
-    <t>Positive Test Data</t>
-  </si>
-  <si>
-    <t>Planet Data already present for the user</t>
-  </si>
-  <si>
-    <t>Planet Name</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Earth</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Jupiter</t>
-  </si>
-  <si>
-    <t>Moon Data already present for the user</t>
-  </si>
-  <si>
-    <t>Moon Name</t>
-  </si>
-  <si>
-    <t>Owner Planet</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>Positive Planet Test Data</t>
-  </si>
-  <si>
-    <t>X3r_df -45</t>
-  </si>
-  <si>
-    <t>Positive Moon Test Data</t>
-  </si>
-  <si>
-    <t>VM1</t>
-  </si>
-  <si>
-    <t>Y3r_df -45</t>
-  </si>
-  <si>
-    <t>Negative Planet Test Data</t>
-  </si>
-  <si>
-    <t>Valid Image format</t>
-  </si>
-  <si>
-    <t>VIF1</t>
-  </si>
-  <si>
-    <t>VIF2</t>
-  </si>
-  <si>
-    <t>VIF3</t>
-  </si>
-  <si>
-    <t>.jpeg</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>Valid Planet Name</t>
-  </si>
-  <si>
-    <t>Valid Moon name</t>
-  </si>
-  <si>
-    <t>Valid Parent Planet</t>
-  </si>
-  <si>
-    <t>VPP1</t>
-  </si>
-  <si>
-    <t>invalid Planet Name</t>
-  </si>
-  <si>
-    <t>andigkfsau_-123dadjing infkihek</t>
-  </si>
-  <si>
-    <t>hellu?</t>
-  </si>
-  <si>
-    <t>valid file format if present</t>
-  </si>
-  <si>
-    <t>.gif</t>
-  </si>
-  <si>
-    <t>IIF1</t>
-  </si>
-  <si>
-    <t>IM1</t>
-  </si>
-  <si>
-    <t>IM2</t>
-  </si>
-  <si>
-    <t>IM3</t>
-  </si>
-  <si>
-    <t>Planet Data owned by other users</t>
-  </si>
-  <si>
-    <t>Europa</t>
-  </si>
-  <si>
-    <t>PR4, PR3</t>
-  </si>
-  <si>
-    <t>Negative Moon Test Data</t>
-  </si>
-  <si>
-    <t>IM4</t>
-  </si>
-  <si>
-    <t>Mr3</t>
-  </si>
-  <si>
-    <t>invalid Parent Planet</t>
-  </si>
-  <si>
-    <t>invalid Moon Name</t>
-  </si>
-  <si>
-    <t>IPP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planet Name </t>
-  </si>
-  <si>
-    <t>Image File Format</t>
-  </si>
-  <si>
-    <t>Decision Table for Planet</t>
-  </si>
-  <si>
-    <t>Invalid Planet Name Alert</t>
-  </si>
-  <si>
-    <t>Parent Planet Name</t>
-  </si>
-  <si>
-    <t>Planet Created Sucessfully</t>
-  </si>
-  <si>
-    <t>Moon Created Sucessfully</t>
-  </si>
-  <si>
-    <t>Invalid Image Format Alert</t>
-  </si>
-  <si>
-    <t>Invalid Parent Planet Alert</t>
-  </si>
-  <si>
-    <t>Moon Data  owned by other users</t>
-  </si>
-  <si>
-    <t>Decision Table for Moon</t>
-  </si>
-  <si>
-    <t>Sucessfully Deleted</t>
-  </si>
-  <si>
-    <t>Can only Delete Moon of Owned Planet Alert</t>
-  </si>
-  <si>
-    <t>Can only Delete Owned Planet Alert</t>
-  </si>
-  <si>
-    <t>Invalid Image format</t>
-  </si>
-  <si>
-    <t>Invalid Image File Format Alert</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Clicks on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Create Moon"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">And the new moon </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&lt;moon name input&gt;"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is on the table</t>
-    </r>
-  </si>
-  <si>
-    <t>Fix Them here and in Jira</t>
-  </si>
-  <si>
-    <t>Invalid Moon Name Alert</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user provides planet Id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;planet Id&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Planet Id</t>
+  </si>
+  <si>
+    <t>Invalid planet name Alert</t>
+  </si>
+  <si>
+    <t>Invalid moon name Alert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2570,8 +2239,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2663,6 +2339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2793,7 +2475,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2862,13 +2544,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2880,55 +2595,37 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3043,22 +2740,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{79042BBB-0F12-4F67-90F0-C8062A2B8101}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{79042BBB-0F12-4F67-90F0-C8062A2B8101}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:B7" xr:uid="{79042BBB-0F12-4F67-90F0-C8062A2B8101}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EC350D5A-6EAD-426C-A18A-35EC1B171BC1}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{690F5785-7E7F-4D6A-8A10-FEEAAFDE3874}" name="Planet Requirement" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EC350D5A-6EAD-426C-A18A-35EC1B171BC1}" name="ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{690F5785-7E7F-4D6A-8A10-FEEAAFDE3874}" name="Planet Requirement" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{402AD37E-496A-4B82-BD5A-DDA158D6DA5D}" name="Table3" displayName="Table3" ref="A1:B7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{402AD37E-496A-4B82-BD5A-DDA158D6DA5D}" name="Table3" displayName="Table3" ref="A1:B7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:B7" xr:uid="{402AD37E-496A-4B82-BD5A-DDA158D6DA5D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{77E4F913-7B38-4531-8FAA-D16B0FAAB464}" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{85281BD9-33CE-4F6C-84B3-1E17141FF66A}" name="User Requirement" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{77E4F913-7B38-4531-8FAA-D16B0FAAB464}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{85281BD9-33CE-4F6C-84B3-1E17141FF66A}" name="User Requirement" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3812,7 +3509,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -3834,7 +3531,7 @@
         <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -3892,7 +3589,7 @@
       <c r="A11" s="31"/>
       <c r="B11" s="30"/>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -3906,7 +3603,7 @@
       <c r="A13" s="31"/>
       <c r="B13" s="30"/>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -3933,8 +3630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F9112B-A9DE-E441-995E-55E1682CB647}">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3948,140 +3645,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="B2" s="29"/>
-      <c r="C2" s="48"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="29" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="40"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="30" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -4089,39 +3786,39 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
@@ -4129,180 +3826,180 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="D12" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>30</v>
@@ -4312,164 +4009,164 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -4481,116 +4178,131 @@
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="42"/>
+      <c r="A39" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="38"/>
       <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="D39" s="52" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>194</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D41" s="52"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" s="42"/>
+      <c r="A43" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>194</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>194</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D49" s="52"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="17"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="C53" s="23"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="29" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="2"/>
@@ -4598,95 +4310,95 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="B61" s="46"/>
+      <c r="A61" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="40"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="C62" s="22"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B67" s="30"/>
-      <c r="C67" s="40"/>
+      <c r="C67" s="37"/>
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="17" t="s">
@@ -4695,10 +4407,10 @@
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>39</v>
@@ -4706,10 +4418,10 @@
     </row>
     <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>40</v>
@@ -4717,10 +4429,10 @@
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>41</v>
@@ -4728,36 +4440,36 @@
     </row>
     <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="30" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="B75" s="30"/>
-      <c r="C75" s="40"/>
+      <c r="C75" s="37"/>
     </row>
     <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="17" t="s">
@@ -4766,10 +4478,10 @@
     </row>
     <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>52</v>
@@ -4777,10 +4489,10 @@
     </row>
     <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>53</v>
@@ -4788,61 +4500,61 @@
     </row>
     <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
+      <c r="A83" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
     </row>
     <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>58</v>
@@ -4852,560 +4564,560 @@
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="44"/>
+      <c r="A87" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="33"/>
+      <c r="C87" s="34"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C97" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C99" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C103" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="C107" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
+      <c r="A109" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C111" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="D111" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C112" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C113" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="D113" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C114" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="D114" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C115" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="D115" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C117" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="D117" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="D118" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="C119" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="D119" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="C120" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="D120" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C121" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="D121" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C122" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="D122" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="D123" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C124" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="D124" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C125" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="D125" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="B126" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C126" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="D126" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C127" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="D127" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C128" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="D128" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="B129" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C129" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="D129" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C131" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="D131" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C132" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="D132" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5415,186 +5127,186 @@
       <c r="D134" s="20"/>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="43" t="s">
+      <c r="A135" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B135" s="43"/>
-      <c r="C135" s="43"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
       <c r="D135" s="2"/>
     </row>
     <row r="136" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="B136" s="42"/>
+      <c r="A136" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="38"/>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="21" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="B138" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="B140" s="42"/>
+      <c r="A140" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B140" s="38"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="21" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="B142" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="B144" s="42"/>
-      <c r="C144" s="42"/>
+      <c r="A144" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" s="38"/>
+      <c r="C144" s="38"/>
       <c r="D144" s="24"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="B148" s="42"/>
-      <c r="C148" s="42"/>
+      <c r="A148" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B148" s="38"/>
+      <c r="C148" s="38"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="21" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="B150" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="29" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="B152" s="29"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="21" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B154" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="29" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B156" s="29"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="21" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="30" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B160" s="30"/>
-      <c r="C160" s="40"/>
+      <c r="C160" s="37"/>
     </row>
     <row r="161" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="C162" s="17" t="s">
         <v>17</v>
@@ -5602,28 +5314,28 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="30" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="B164" s="30"/>
-      <c r="C164" s="40"/>
+      <c r="C164" s="37"/>
     </row>
     <row r="165" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="19" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="C166" s="17" t="s">
         <v>17</v>
@@ -5635,69 +5347,95 @@
       <c r="C167" s="17"/>
     </row>
     <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="B168" s="41"/>
-      <c r="C168" s="17"/>
+      <c r="A168" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
     </row>
     <row r="169" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="19" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C169" s="17"/>
+        <v>111</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="B170" t="s">
-        <v>247</v>
+        <v>201</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="B171" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="B173" s="41"/>
+      <c r="A173" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B173" s="33"/>
     </row>
     <row r="174" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="19" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>156</v>
+      </c>
+      <c r="B175" t="s">
         <v>201</v>
-      </c>
-      <c r="B175" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A22:C22"/>
@@ -5708,27 +5446,7 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="D39:D49"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5738,11 +5456,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14EEDEC-6C50-4FA1-BB35-C40D70D716CC}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5766,7 +5484,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1"/>
       <c r="G1" s="1"/>
@@ -5775,7 +5493,7 @@
       <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="41" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5789,34 +5507,34 @@
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
-      <c r="B3" s="33"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
-      <c r="B4" s="33"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
-      <c r="B6" s="33"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="1" t="s">
         <v>65</v>
       </c>
@@ -5824,15 +5542,15 @@
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
-      <c r="B7" s="33"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
@@ -5840,7 +5558,7 @@
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -5858,7 +5576,7 @@
       <c r="A11" s="31"/>
       <c r="B11" s="30"/>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -5888,7 +5606,7 @@
     </row>
     <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="31"/>
-      <c r="B15" s="39"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="1" t="s">
         <v>74</v>
       </c>
@@ -5898,58 +5616,58 @@
       <c r="A16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="45" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="15" t="s">
-        <v>89</v>
+      <c r="B17" s="41"/>
+      <c r="C17" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="15" t="s">
-        <v>90</v>
+      <c r="B18" s="41"/>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
-      <c r="B19" s="33"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="15" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="31"/>
-      <c r="B20" s="34"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
@@ -5958,7 +5676,7 @@
       <c r="A22" s="31"/>
       <c r="B22" s="30"/>
       <c r="C22" s="15" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
@@ -5967,7 +5685,7 @@
       <c r="A23" s="31"/>
       <c r="B23" s="30"/>
       <c r="C23" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
@@ -5976,7 +5694,7 @@
       <c r="A24" s="31"/>
       <c r="B24" s="30"/>
       <c r="C24" s="15" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -5984,53 +5702,51 @@
       <c r="A25" s="31"/>
       <c r="B25" s="30"/>
       <c r="C25" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
-      <c r="B26" s="39"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>88</v>
+      <c r="C27" s="49" t="s">
+        <v>212</v>
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="15" t="s">
-        <v>98</v>
-      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="15" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -6038,15 +5754,15 @@
       <c r="A31" s="31"/>
       <c r="B31" s="30"/>
       <c r="C31" s="16" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
-      <c r="B32" s="39"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D32" s="4"/>
     </row>
@@ -6054,151 +5770,152 @@
       <c r="A33" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="45" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
-      <c r="B34" s="33"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="15" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
-      <c r="B35" s="33"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="15" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
-      <c r="B36" s="33"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="15" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
-      <c r="B37" s="33"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="15" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
-      <c r="B38" s="34"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="15" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="32" t="s">
-        <v>69</v>
-      </c>
+      <c r="B39" s="42"/>
       <c r="C39" s="15" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
-      <c r="B40" s="33"/>
+      <c r="B40" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="C40" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
-      <c r="B41" s="33"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="4"/>
+        <v>212</v>
+      </c>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
-      <c r="B42" s="33"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
-      <c r="B43" s="33"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
-      <c r="B44" s="34"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
-      <c r="B45" s="49" t="s">
-        <v>70</v>
-      </c>
+      <c r="B45" s="50"/>
       <c r="C45" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
-      <c r="B46" s="50"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="4"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
-      <c r="B47" s="50"/>
+      <c r="B47" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="C47" s="15" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
-      <c r="B48" s="50"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="15" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
-      <c r="B49" s="50"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="15" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="15" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="D50" s="4"/>
     </row>
@@ -6206,418 +5923,382 @@
       <c r="A51" s="31"/>
       <c r="B51" s="51"/>
       <c r="C51" s="15" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
-      <c r="B52" s="32" t="s">
-        <v>69</v>
-      </c>
+      <c r="B52" s="51"/>
       <c r="C52" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="54" t="s">
-        <v>254</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D52" s="56"/>
     </row>
     <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
-      <c r="B53" s="52"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="54"/>
+        <v>218</v>
+      </c>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
-      <c r="B54" s="52"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="54"/>
-    </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="D54" s="56"/>
+    </row>
+    <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="C55" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="54"/>
+        <v>223</v>
+      </c>
+      <c r="D55" s="56"/>
     </row>
     <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
-      <c r="B56" s="52"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="54"/>
-    </row>
-    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="D56" s="56"/>
+    </row>
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D57" s="54"/>
-    </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B57" s="54"/>
+      <c r="C57" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" s="56"/>
+    </row>
+    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
-      <c r="B58" s="32" t="s">
-        <v>69</v>
-      </c>
+      <c r="B58" s="54"/>
       <c r="C58" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="54"/>
+        <v>226</v>
+      </c>
+      <c r="D58" s="56"/>
     </row>
     <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="31"/>
-      <c r="B59" s="52"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="54"/>
+        <v>238</v>
+      </c>
+      <c r="D59" s="56"/>
     </row>
     <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="54"/>
-    </row>
-    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="D60" s="56"/>
+    </row>
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
-      <c r="B61" s="52"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="54"/>
+        <v>228</v>
+      </c>
+      <c r="D61" s="56"/>
     </row>
     <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="31"/>
-      <c r="B62" s="52"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="54"/>
+        <v>231</v>
+      </c>
+      <c r="D62" s="56"/>
     </row>
     <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="C63" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D63" s="54"/>
+        <v>212</v>
+      </c>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="31"/>
-      <c r="B64" s="52"/>
+      <c r="B64" s="51"/>
       <c r="C64" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="54"/>
-    </row>
-    <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="31"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D65" s="54"/>
+        <v>234</v>
+      </c>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
-      <c r="B66" s="35" t="s">
-        <v>70</v>
-      </c>
+      <c r="B66" s="51"/>
       <c r="C66" s="15" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="31"/>
-      <c r="B67" s="53"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="15" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
-      <c r="B68" s="53"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="15" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="31"/>
-      <c r="B69" s="53"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="15" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="31"/>
-      <c r="B70" s="53"/>
+      <c r="B70" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="C70" s="15" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="15" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="31"/>
-      <c r="B72" s="37"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="15" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>69</v>
-      </c>
+      <c r="A73" s="31"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="15" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="31"/>
-      <c r="B74" s="33"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="15" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="31"/>
-      <c r="B75" s="33"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="15" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="31"/>
-      <c r="B76" s="33"/>
+      <c r="B76" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="C76" s="15" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="31"/>
-      <c r="B77" s="33"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="15" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="31"/>
-      <c r="B78" s="33"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="15" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="31"/>
-      <c r="B79" s="33"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="15" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="31"/>
-      <c r="B80" s="33"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="15" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
-      <c r="B81" s="33"/>
+      <c r="B81" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="C81" s="15" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
-      <c r="B82" s="34"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="15" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
-      <c r="B83" s="32" t="s">
-        <v>69</v>
-      </c>
+      <c r="B83" s="47"/>
       <c r="C83" s="15" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
-      <c r="B84" s="33"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="15" t="s">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="31"/>
-      <c r="B85" s="33"/>
+      <c r="B85" s="48"/>
       <c r="C85" s="15" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="31"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="15" t="s">
-        <v>131</v>
-      </c>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="31"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="15" t="s">
-        <v>132</v>
-      </c>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="31"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="15" t="s">
-        <v>133</v>
-      </c>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="31"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="15" t="s">
-        <v>127</v>
-      </c>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="31"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="15" t="s">
-        <v>134</v>
-      </c>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="31"/>
-      <c r="B91" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>109</v>
-      </c>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="31"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="15" t="s">
-        <v>104</v>
-      </c>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="31"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="15" t="s">
-        <v>135</v>
-      </c>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="31"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="15" t="s">
-        <v>124</v>
-      </c>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A95" s="31"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="15" t="s">
-        <v>136</v>
-      </c>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="31"/>
-      <c r="B96" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>109</v>
-      </c>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="31"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="15" t="s">
-        <v>110</v>
-      </c>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="31"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="15" t="s">
-        <v>137</v>
-      </c>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="31"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="15" t="s">
-        <v>132</v>
-      </c>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="31"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="15" t="s">
-        <v>138</v>
-      </c>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -6657,91 +6338,31 @@
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C117" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D52:D65"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="A63:A85"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="A16:A26"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A33:A72"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="A33:A62"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="A73:A100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6776,7 +6397,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -6790,7 +6411,7 @@
         <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
